--- a/Code/Results/Cases/Case_2_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011656733782803</v>
+        <v>1.033439050578729</v>
       </c>
       <c r="D2">
-        <v>1.027151695338417</v>
+        <v>1.037079819858861</v>
       </c>
       <c r="E2">
-        <v>1.02200161274557</v>
+        <v>1.054028787432045</v>
       </c>
       <c r="F2">
-        <v>1.029661953582706</v>
+        <v>1.059975294795178</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050527548544189</v>
+        <v>1.039819553852152</v>
       </c>
       <c r="J2">
-        <v>1.033494297339078</v>
+        <v>1.038563771810583</v>
       </c>
       <c r="K2">
-        <v>1.038245292388916</v>
+        <v>1.03987172730686</v>
       </c>
       <c r="L2">
-        <v>1.033162709028359</v>
+        <v>1.056773126186569</v>
       </c>
       <c r="M2">
-        <v>1.040722956431338</v>
+        <v>1.062703334657551</v>
       </c>
       <c r="N2">
-        <v>1.034961977784762</v>
+        <v>1.040038651491483</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015611673870644</v>
+        <v>1.034258625655614</v>
       </c>
       <c r="D3">
-        <v>1.030007586705231</v>
+        <v>1.037686267510615</v>
       </c>
       <c r="E3">
-        <v>1.026558139512437</v>
+        <v>1.055080277588298</v>
       </c>
       <c r="F3">
-        <v>1.034343017100879</v>
+        <v>1.061043763695929</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051873937752543</v>
+        <v>1.040037924140407</v>
       </c>
       <c r="J3">
-        <v>1.035685610969945</v>
+        <v>1.039026719630982</v>
       </c>
       <c r="K3">
-        <v>1.040270388676247</v>
+        <v>1.040288447557296</v>
       </c>
       <c r="L3">
-        <v>1.036862117241916</v>
+        <v>1.05763716867021</v>
       </c>
       <c r="M3">
-        <v>1.044554549659124</v>
+        <v>1.06358549608636</v>
       </c>
       <c r="N3">
-        <v>1.037156403332323</v>
+        <v>1.040502256750889</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018119788809112</v>
+        <v>1.034789197301381</v>
       </c>
       <c r="D4">
-        <v>1.031820696801698</v>
+        <v>1.038078829246122</v>
       </c>
       <c r="E4">
-        <v>1.029455085103637</v>
+        <v>1.055761813243849</v>
       </c>
       <c r="F4">
-        <v>1.03731725429997</v>
+        <v>1.061736101811262</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052717245965321</v>
+        <v>1.040178007024959</v>
       </c>
       <c r="J4">
-        <v>1.03707107736611</v>
+        <v>1.039325862360939</v>
       </c>
       <c r="K4">
-        <v>1.041549663489055</v>
+        <v>1.040557548140531</v>
       </c>
       <c r="L4">
-        <v>1.039210549849394</v>
+        <v>1.058196808580137</v>
       </c>
       <c r="M4">
-        <v>1.046985225685441</v>
+        <v>1.064156678659055</v>
       </c>
       <c r="N4">
-        <v>1.038543837249685</v>
+        <v>1.040801824297835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019162378394017</v>
+        <v>1.035012308537722</v>
       </c>
       <c r="D5">
-        <v>1.032574818285473</v>
+        <v>1.038243896491074</v>
       </c>
       <c r="E5">
-        <v>1.03066110019996</v>
+        <v>1.056048605574049</v>
       </c>
       <c r="F5">
-        <v>1.038554990901386</v>
+        <v>1.062027391388771</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053065237005326</v>
+        <v>1.040236605783694</v>
       </c>
       <c r="J5">
-        <v>1.037645964398493</v>
+        <v>1.039451521491132</v>
       </c>
       <c r="K5">
-        <v>1.042080214189374</v>
+        <v>1.040670546454864</v>
       </c>
       <c r="L5">
-        <v>1.040187349883732</v>
+        <v>1.058432211288108</v>
       </c>
       <c r="M5">
-        <v>1.047995827817245</v>
+        <v>1.06439689034692</v>
       </c>
       <c r="N5">
-        <v>1.039119540687595</v>
+        <v>1.040927661878406</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019336751433585</v>
+        <v>1.0350497733115</v>
       </c>
       <c r="D6">
-        <v>1.032700969559027</v>
+        <v>1.038271613974671</v>
       </c>
       <c r="E6">
-        <v>1.030862912665859</v>
+        <v>1.056096775354225</v>
       </c>
       <c r="F6">
-        <v>1.038762084740156</v>
+        <v>1.062076313687928</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053123286989208</v>
+        <v>1.040246427625807</v>
       </c>
       <c r="J6">
-        <v>1.037742052824864</v>
+        <v>1.039472614290835</v>
       </c>
       <c r="K6">
-        <v>1.042168875780481</v>
+        <v>1.04068951162375</v>
       </c>
       <c r="L6">
-        <v>1.040350754771078</v>
+        <v>1.058471744044615</v>
       </c>
       <c r="M6">
-        <v>1.048164863299691</v>
+        <v>1.064437227995208</v>
       </c>
       <c r="N6">
-        <v>1.039215765570553</v>
+        <v>1.040948784632303</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018133765894867</v>
+        <v>1.034792178294836</v>
       </c>
       <c r="D7">
-        <v>1.031830804977077</v>
+        <v>1.038081034749891</v>
       </c>
       <c r="E7">
-        <v>1.029471245957817</v>
+        <v>1.055765644298527</v>
       </c>
       <c r="F7">
-        <v>1.037333842030491</v>
+        <v>1.061739993131783</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052721921335251</v>
+        <v>1.040178791172967</v>
       </c>
       <c r="J7">
-        <v>1.037078788483484</v>
+        <v>1.039327541820445</v>
       </c>
       <c r="K7">
-        <v>1.041556781002531</v>
+        <v>1.040559058547813</v>
       </c>
       <c r="L7">
-        <v>1.039223642602937</v>
+        <v>1.058199953532444</v>
       </c>
       <c r="M7">
-        <v>1.046998773123135</v>
+        <v>1.064159888040459</v>
       </c>
       <c r="N7">
-        <v>1.03855155931773</v>
+        <v>1.040803506142366</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013004121883906</v>
+        <v>1.033715976866858</v>
       </c>
       <c r="D8">
-        <v>1.028124214303704</v>
+        <v>1.037284739808287</v>
       </c>
       <c r="E8">
-        <v>1.023552440701248</v>
+        <v>1.054383904567084</v>
       </c>
       <c r="F8">
-        <v>1.031255560980901</v>
+        <v>1.060336188013781</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050988431121903</v>
+        <v>1.039893604763288</v>
       </c>
       <c r="J8">
-        <v>1.03424171149659</v>
+        <v>1.038720312612016</v>
       </c>
       <c r="K8">
-        <v>1.038936238541541</v>
+        <v>1.040012672153113</v>
       </c>
       <c r="L8">
-        <v>1.034422556982334</v>
+        <v>1.057065019733272</v>
       </c>
       <c r="M8">
-        <v>1.042028166851694</v>
+        <v>1.0630013891071</v>
       </c>
       <c r="N8">
-        <v>1.035710453356098</v>
+        <v>1.04019541459881</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003556149515666</v>
+        <v>1.031821560594876</v>
       </c>
       <c r="D9">
-        <v>1.021314927819634</v>
+        <v>1.035882778440686</v>
       </c>
       <c r="E9">
-        <v>1.012707403281768</v>
+        <v>1.051957957654542</v>
       </c>
       <c r="F9">
-        <v>1.020103521483194</v>
+        <v>1.057869953747254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047713381688239</v>
+        <v>1.039381776135489</v>
       </c>
       <c r="J9">
-        <v>1.028983952934554</v>
+        <v>1.037647159735135</v>
       </c>
       <c r="K9">
-        <v>1.034071398245151</v>
+        <v>1.039045738657603</v>
       </c>
       <c r="L9">
-        <v>1.025597622002196</v>
+        <v>1.055069342436035</v>
       </c>
       <c r="M9">
-        <v>1.032878641137942</v>
+        <v>1.060962801431548</v>
       </c>
       <c r="N9">
-        <v>1.030445228173831</v>
+        <v>1.039120737721752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9969554457695647</v>
+        <v>1.030560033100994</v>
       </c>
       <c r="D10">
-        <v>1.016572433831689</v>
+        <v>1.034949041995969</v>
       </c>
       <c r="E10">
-        <v>1.005166312137896</v>
+        <v>1.050346663354076</v>
       </c>
       <c r="F10">
-        <v>1.012339141035121</v>
+        <v>1.056230860761687</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04537176196043</v>
+        <v>1.039034347592983</v>
       </c>
       <c r="J10">
-        <v>1.025290380880118</v>
+        <v>1.036929674633136</v>
       </c>
       <c r="K10">
-        <v>1.030648778743982</v>
+        <v>1.038398399726624</v>
       </c>
       <c r="L10">
-        <v>1.019442909564962</v>
+        <v>1.053741774112775</v>
       </c>
       <c r="M10">
-        <v>1.02648912597349</v>
+        <v>1.059605700659386</v>
       </c>
       <c r="N10">
-        <v>1.026746410823418</v>
+        <v>1.038402233708611</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9940190901798225</v>
+        <v>1.030014130393678</v>
       </c>
       <c r="D11">
-        <v>1.014466852737985</v>
+        <v>1.034544957121131</v>
       </c>
       <c r="E11">
-        <v>1.001819481418227</v>
+        <v>1.049650389214767</v>
       </c>
       <c r="F11">
-        <v>1.008890928638615</v>
+        <v>1.055522327335347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044317852715164</v>
+        <v>1.038882442519408</v>
       </c>
       <c r="J11">
-        <v>1.023642816213387</v>
+        <v>1.036618521870262</v>
       </c>
       <c r="K11">
-        <v>1.029121006808121</v>
+        <v>1.038117463157328</v>
       </c>
       <c r="L11">
-        <v>1.016707166363241</v>
+        <v>1.053167615370429</v>
       </c>
       <c r="M11">
-        <v>1.023647100504985</v>
+        <v>1.059018535787717</v>
       </c>
       <c r="N11">
-        <v>1.025096506425882</v>
+        <v>1.038090639073124</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9929160487047144</v>
+        <v>1.029811411263334</v>
       </c>
       <c r="D12">
-        <v>1.01367657102193</v>
+        <v>1.034394897940769</v>
       </c>
       <c r="E12">
-        <v>1.000563372434468</v>
+        <v>1.049391977140153</v>
       </c>
       <c r="F12">
-        <v>1.00759643090125</v>
+        <v>1.055259328291106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043920155835302</v>
+        <v>1.038825798551825</v>
       </c>
       <c r="J12">
-        <v>1.023023269654467</v>
+        <v>1.036502875193636</v>
       </c>
       <c r="K12">
-        <v>1.028546357836871</v>
+        <v>1.038013016472435</v>
       </c>
       <c r="L12">
-        <v>1.015679787071075</v>
+        <v>1.052954451165561</v>
       </c>
       <c r="M12">
-        <v>1.022579528164653</v>
+        <v>1.058800507816873</v>
       </c>
       <c r="N12">
-        <v>1.024476080039786</v>
+        <v>1.037974828164952</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9931532236760345</v>
+        <v>1.02985489276563</v>
       </c>
       <c r="D13">
-        <v>1.013846465028791</v>
+        <v>1.034427084494142</v>
       </c>
       <c r="E13">
-        <v>1.000833409793809</v>
+        <v>1.049447397659403</v>
       </c>
       <c r="F13">
-        <v>1.007874736291305</v>
+        <v>1.055315734237804</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044005748736614</v>
+        <v>1.038837958805195</v>
       </c>
       <c r="J13">
-        <v>1.02315651236246</v>
+        <v>1.036527684981415</v>
       </c>
       <c r="K13">
-        <v>1.028669951192493</v>
+        <v>1.03803542489371</v>
       </c>
       <c r="L13">
-        <v>1.015900680077436</v>
+        <v>1.05300017089758</v>
       </c>
       <c r="M13">
-        <v>1.022809075449102</v>
+        <v>1.058847272321828</v>
       </c>
       <c r="N13">
-        <v>1.024609511967708</v>
+        <v>1.037999673185476</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9939281679284087</v>
+        <v>1.029997372469381</v>
       </c>
       <c r="D14">
-        <v>1.014401696709121</v>
+        <v>1.034532552440742</v>
       </c>
       <c r="E14">
-        <v>1.00171591941542</v>
+        <v>1.049629024398793</v>
       </c>
       <c r="F14">
-        <v>1.008784208477324</v>
+        <v>1.055500584038442</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044285107357023</v>
+        <v>1.038877764788757</v>
       </c>
       <c r="J14">
-        <v>1.023591760620413</v>
+        <v>1.036608963916243</v>
       </c>
       <c r="K14">
-        <v>1.029073654095683</v>
+        <v>1.038108831480395</v>
       </c>
       <c r="L14">
-        <v>1.016622474882477</v>
+        <v>1.053149993026897</v>
       </c>
       <c r="M14">
-        <v>1.023559101375769</v>
+        <v>1.059000512070483</v>
       </c>
       <c r="N14">
-        <v>1.025045378328111</v>
+        <v>1.038081067545715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9944039818259301</v>
+        <v>1.030085166037867</v>
       </c>
       <c r="D15">
-        <v>1.014742698979698</v>
+        <v>1.03459753953006</v>
       </c>
       <c r="E15">
-        <v>1.002257925236086</v>
+        <v>1.049740959158747</v>
       </c>
       <c r="F15">
-        <v>1.009342729153986</v>
+        <v>1.055614500219051</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044456397236308</v>
+        <v>1.038902261480626</v>
       </c>
       <c r="J15">
-        <v>1.023858918637841</v>
+        <v>1.036659033213035</v>
       </c>
       <c r="K15">
-        <v>1.02932143009005</v>
+        <v>1.038154047230797</v>
       </c>
       <c r="L15">
-        <v>1.017065694076182</v>
+        <v>1.053242317176116</v>
       </c>
       <c r="M15">
-        <v>1.024019619248785</v>
+        <v>1.059094937596285</v>
       </c>
       <c r="N15">
-        <v>1.025312915740566</v>
+        <v>1.03813120794665</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9971486240831393</v>
+        <v>1.030596270288542</v>
       </c>
       <c r="D16">
-        <v>1.01671104786954</v>
+        <v>1.03497586473507</v>
       </c>
       <c r="E16">
-        <v>1.005386654361967</v>
+        <v>1.05039290290424</v>
       </c>
       <c r="F16">
-        <v>1.012566110545154</v>
+        <v>1.056277909243248</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045440845599504</v>
+        <v>1.039044398194022</v>
       </c>
       <c r="J16">
-        <v>1.025398681243441</v>
+        <v>1.036950314851024</v>
       </c>
       <c r="K16">
-        <v>1.03074918341179</v>
+        <v>1.038417031277675</v>
       </c>
       <c r="L16">
-        <v>1.019622933489929</v>
+        <v>1.053779893672538</v>
       </c>
       <c r="M16">
-        <v>1.026676104478598</v>
+        <v>1.059644678800493</v>
       </c>
       <c r="N16">
-        <v>1.026854864985679</v>
+        <v>1.038422903237976</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9988489169730573</v>
+        <v>1.030916966310626</v>
       </c>
       <c r="D17">
-        <v>1.017931562067318</v>
+        <v>1.03521324055866</v>
       </c>
       <c r="E17">
-        <v>1.00732692422959</v>
+        <v>1.050802232556905</v>
       </c>
       <c r="F17">
-        <v>1.014564478520167</v>
+        <v>1.056694371302583</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04604750964749</v>
+        <v>1.039133164689783</v>
       </c>
       <c r="J17">
-        <v>1.02635140158365</v>
+        <v>1.037132901114095</v>
       </c>
       <c r="K17">
-        <v>1.031632324968785</v>
+        <v>1.038581825042843</v>
       </c>
       <c r="L17">
-        <v>1.021207694063283</v>
+        <v>1.054117285646355</v>
       </c>
       <c r="M17">
-        <v>1.02832186948394</v>
+        <v>1.059989642976642</v>
       </c>
       <c r="N17">
-        <v>1.02780893829805</v>
+        <v>1.038605748794484</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9998331656212589</v>
+        <v>1.031104056269597</v>
       </c>
       <c r="D18">
-        <v>1.018638470439657</v>
+        <v>1.035351719871148</v>
       </c>
       <c r="E18">
-        <v>1.008450838377328</v>
+        <v>1.051041125244146</v>
       </c>
       <c r="F18">
-        <v>1.015721829037544</v>
+        <v>1.056937402751194</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046397525557249</v>
+        <v>1.039184799173915</v>
       </c>
       <c r="J18">
-        <v>1.026902477240124</v>
+        <v>1.037239354505361</v>
       </c>
       <c r="K18">
-        <v>1.032143052513404</v>
+        <v>1.03867788516715</v>
       </c>
       <c r="L18">
-        <v>1.022125276497146</v>
+        <v>1.054314146925484</v>
       </c>
       <c r="M18">
-        <v>1.029274591442988</v>
+        <v>1.060190899915732</v>
       </c>
       <c r="N18">
-        <v>1.028360796545165</v>
+        <v>1.038712353361776</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.0001675138009</v>
+        <v>1.031167854735449</v>
       </c>
       <c r="D19">
-        <v>1.018878670785713</v>
+        <v>1.035398941425653</v>
       </c>
       <c r="E19">
-        <v>1.008832759546842</v>
+        <v>1.051122604797617</v>
       </c>
       <c r="F19">
-        <v>1.016115075349945</v>
+        <v>1.057020289874803</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046516226965609</v>
+        <v>1.039202381176967</v>
       </c>
       <c r="J19">
-        <v>1.027089603924425</v>
+        <v>1.037275644514</v>
       </c>
       <c r="K19">
-        <v>1.032316460677932</v>
+        <v>1.038710628760752</v>
       </c>
       <c r="L19">
-        <v>1.022437015060645</v>
+        <v>1.054381282750477</v>
       </c>
       <c r="M19">
-        <v>1.029598237134962</v>
+        <v>1.060259530969037</v>
       </c>
       <c r="N19">
-        <v>1.028548188970822</v>
+        <v>1.038748694906389</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9986672719529652</v>
+        <v>1.030882555198841</v>
       </c>
       <c r="D20">
-        <v>1.017801131794752</v>
+        <v>1.035187770091751</v>
       </c>
       <c r="E20">
-        <v>1.007119564651187</v>
+        <v>1.050758301118158</v>
       </c>
       <c r="F20">
-        <v>1.014350932421406</v>
+        <v>1.056649676842351</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045982819188391</v>
+        <v>1.039123655517503</v>
       </c>
       <c r="J20">
-        <v>1.026249664875043</v>
+        <v>1.037113316095978</v>
       </c>
       <c r="K20">
-        <v>1.031538028780116</v>
+        <v>1.03856415056381</v>
       </c>
       <c r="L20">
-        <v>1.02103836976295</v>
+        <v>1.054081079823161</v>
       </c>
       <c r="M20">
-        <v>1.028146045997682</v>
+        <v>1.059952626907232</v>
       </c>
       <c r="N20">
-        <v>1.027707057111647</v>
+        <v>1.038586135963394</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9937003120390149</v>
+        <v>1.029955414262105</v>
       </c>
       <c r="D21">
-        <v>1.014238423458853</v>
+        <v>1.034501493755171</v>
       </c>
       <c r="E21">
-        <v>1.001456405627165</v>
+        <v>1.049575533905831</v>
       </c>
       <c r="F21">
-        <v>1.008516775281447</v>
+        <v>1.05544614535364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044203016993448</v>
+        <v>1.038866048977406</v>
       </c>
       <c r="J21">
-        <v>1.02346380245967</v>
+        <v>1.036585031239229</v>
       </c>
       <c r="K21">
-        <v>1.028954973925204</v>
+        <v>1.038087217666306</v>
       </c>
       <c r="L21">
-        <v>1.016410238390984</v>
+        <v>1.053105871269884</v>
       </c>
       <c r="M21">
-        <v>1.023338571448663</v>
+        <v>1.058955384811928</v>
       </c>
       <c r="N21">
-        <v>1.024917238452102</v>
+        <v>1.038057100881554</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9905056181899825</v>
+        <v>1.029372793800085</v>
       </c>
       <c r="D22">
-        <v>1.011950915743426</v>
+        <v>1.034070213229286</v>
       </c>
       <c r="E22">
-        <v>0.9978204606983814</v>
+        <v>1.048833126344908</v>
       </c>
       <c r="F22">
-        <v>1.004769073275759</v>
+        <v>1.054690489696622</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04304782986463</v>
+        <v>1.038702810947575</v>
       </c>
       <c r="J22">
-        <v>1.021668260372755</v>
+        <v>1.036252469094445</v>
       </c>
       <c r="K22">
-        <v>1.027289283017115</v>
+        <v>1.037786805728157</v>
       </c>
       <c r="L22">
-        <v>1.013435218691716</v>
+        <v>1.052493320519318</v>
       </c>
       <c r="M22">
-        <v>1.020246642235908</v>
+        <v>1.05832879149547</v>
       </c>
       <c r="N22">
-        <v>1.023119146489472</v>
+        <v>1.037724066460379</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9922061990574332</v>
+        <v>1.029681622124803</v>
       </c>
       <c r="D23">
-        <v>1.013168193135905</v>
+        <v>1.034298822917704</v>
       </c>
       <c r="E23">
-        <v>0.9997553286614365</v>
+        <v>1.049226572359552</v>
       </c>
       <c r="F23">
-        <v>1.006763597037251</v>
+        <v>1.055090977027004</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04366372174082</v>
+        <v>1.038789466742953</v>
       </c>
       <c r="J23">
-        <v>1.022624391452388</v>
+        <v>1.036428804974377</v>
       </c>
       <c r="K23">
-        <v>1.028176345213901</v>
+        <v>1.037946111135281</v>
       </c>
       <c r="L23">
-        <v>1.015018710178452</v>
+        <v>1.052817988009008</v>
       </c>
       <c r="M23">
-        <v>1.021892510801705</v>
+        <v>1.058660921116223</v>
       </c>
       <c r="N23">
-        <v>1.024076635384908</v>
+        <v>1.037900652757486</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9987493726631426</v>
+        <v>1.030898103995991</v>
       </c>
       <c r="D24">
-        <v>1.017860083037078</v>
+        <v>1.035199279031549</v>
       </c>
       <c r="E24">
-        <v>1.007213285610615</v>
+        <v>1.050778151419102</v>
       </c>
       <c r="F24">
-        <v>1.014447450195779</v>
+        <v>1.056669871986144</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046012061875809</v>
+        <v>1.039127952740442</v>
       </c>
       <c r="J24">
-        <v>1.026295649599172</v>
+        <v>1.037122165865137</v>
       </c>
       <c r="K24">
-        <v>1.031580650726424</v>
+        <v>1.038572137089579</v>
       </c>
       <c r="L24">
-        <v>1.021114901040906</v>
+        <v>1.054097439471522</v>
       </c>
       <c r="M24">
-        <v>1.028225515346393</v>
+        <v>1.059969352736117</v>
       </c>
       <c r="N24">
-        <v>1.027753107139359</v>
+        <v>1.03859499830024</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006049824792484</v>
+        <v>1.032311068767617</v>
       </c>
       <c r="D25">
-        <v>1.023109820644379</v>
+        <v>1.036245066183063</v>
       </c>
       <c r="E25">
-        <v>1.015563479551248</v>
+        <v>1.052584068581382</v>
       </c>
       <c r="F25">
-        <v>1.023042158428743</v>
+        <v>1.058506646003942</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04858717803981</v>
+        <v>1.039515193431281</v>
       </c>
       <c r="J25">
-        <v>1.030375289546411</v>
+        <v>1.037924961137142</v>
       </c>
       <c r="K25">
-        <v>1.0353596743129</v>
+        <v>1.039296197406773</v>
       </c>
       <c r="L25">
-        <v>1.027924902887056</v>
+        <v>1.055584767996725</v>
       </c>
       <c r="M25">
-        <v>1.035293003174195</v>
+        <v>1.06148948392835</v>
       </c>
       <c r="N25">
-        <v>1.031838540643264</v>
+        <v>1.039398933633614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033439050578729</v>
+        <v>1.011656733782804</v>
       </c>
       <c r="D2">
-        <v>1.037079819858861</v>
+        <v>1.027151695338418</v>
       </c>
       <c r="E2">
-        <v>1.054028787432045</v>
+        <v>1.02200161274557</v>
       </c>
       <c r="F2">
-        <v>1.059975294795178</v>
+        <v>1.029661953582707</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039819553852152</v>
+        <v>1.050527548544189</v>
       </c>
       <c r="J2">
-        <v>1.038563771810583</v>
+        <v>1.033494297339079</v>
       </c>
       <c r="K2">
-        <v>1.03987172730686</v>
+        <v>1.038245292388917</v>
       </c>
       <c r="L2">
-        <v>1.056773126186569</v>
+        <v>1.03316270902836</v>
       </c>
       <c r="M2">
-        <v>1.062703334657551</v>
+        <v>1.040722956431339</v>
       </c>
       <c r="N2">
-        <v>1.040038651491483</v>
+        <v>1.034961977784763</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034258625655614</v>
+        <v>1.015611673870644</v>
       </c>
       <c r="D3">
-        <v>1.037686267510615</v>
+        <v>1.030007586705231</v>
       </c>
       <c r="E3">
-        <v>1.055080277588298</v>
+        <v>1.026558139512437</v>
       </c>
       <c r="F3">
-        <v>1.061043763695929</v>
+        <v>1.034343017100878</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040037924140407</v>
+        <v>1.051873937752543</v>
       </c>
       <c r="J3">
-        <v>1.039026719630982</v>
+        <v>1.035685610969945</v>
       </c>
       <c r="K3">
-        <v>1.040288447557296</v>
+        <v>1.040270388676247</v>
       </c>
       <c r="L3">
-        <v>1.05763716867021</v>
+        <v>1.036862117241915</v>
       </c>
       <c r="M3">
-        <v>1.06358549608636</v>
+        <v>1.044554549659124</v>
       </c>
       <c r="N3">
-        <v>1.040502256750889</v>
+        <v>1.037156403332322</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034789197301381</v>
+        <v>1.018119788809111</v>
       </c>
       <c r="D4">
-        <v>1.038078829246122</v>
+        <v>1.031820696801697</v>
       </c>
       <c r="E4">
-        <v>1.055761813243849</v>
+        <v>1.029455085103637</v>
       </c>
       <c r="F4">
-        <v>1.061736101811262</v>
+        <v>1.03731725429997</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040178007024959</v>
+        <v>1.05271724596532</v>
       </c>
       <c r="J4">
-        <v>1.039325862360939</v>
+        <v>1.037071077366109</v>
       </c>
       <c r="K4">
-        <v>1.040557548140531</v>
+        <v>1.041549663489054</v>
       </c>
       <c r="L4">
-        <v>1.058196808580137</v>
+        <v>1.039210549849394</v>
       </c>
       <c r="M4">
-        <v>1.064156678659055</v>
+        <v>1.046985225685441</v>
       </c>
       <c r="N4">
-        <v>1.040801824297835</v>
+        <v>1.038543837249684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035012308537722</v>
+        <v>1.019162378394016</v>
       </c>
       <c r="D5">
-        <v>1.038243896491074</v>
+        <v>1.032574818285472</v>
       </c>
       <c r="E5">
-        <v>1.056048605574049</v>
+        <v>1.030661100199959</v>
       </c>
       <c r="F5">
-        <v>1.062027391388771</v>
+        <v>1.038554990901385</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040236605783694</v>
+        <v>1.053065237005326</v>
       </c>
       <c r="J5">
-        <v>1.039451521491132</v>
+        <v>1.037645964398493</v>
       </c>
       <c r="K5">
-        <v>1.040670546454864</v>
+        <v>1.042080214189373</v>
       </c>
       <c r="L5">
-        <v>1.058432211288108</v>
+        <v>1.040187349883732</v>
       </c>
       <c r="M5">
-        <v>1.06439689034692</v>
+        <v>1.047995827817244</v>
       </c>
       <c r="N5">
-        <v>1.040927661878406</v>
+        <v>1.039119540687594</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0350497733115</v>
+        <v>1.019336751433584</v>
       </c>
       <c r="D6">
-        <v>1.038271613974671</v>
+        <v>1.032700969559027</v>
       </c>
       <c r="E6">
-        <v>1.056096775354225</v>
+        <v>1.030862912665859</v>
       </c>
       <c r="F6">
-        <v>1.062076313687928</v>
+        <v>1.038762084740156</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040246427625807</v>
+        <v>1.053123286989207</v>
       </c>
       <c r="J6">
-        <v>1.039472614290835</v>
+        <v>1.037742052824864</v>
       </c>
       <c r="K6">
-        <v>1.04068951162375</v>
+        <v>1.042168875780481</v>
       </c>
       <c r="L6">
-        <v>1.058471744044615</v>
+        <v>1.040350754771078</v>
       </c>
       <c r="M6">
-        <v>1.064437227995208</v>
+        <v>1.048164863299691</v>
       </c>
       <c r="N6">
-        <v>1.040948784632303</v>
+        <v>1.039215765570552</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034792178294836</v>
+        <v>1.018133765894868</v>
       </c>
       <c r="D7">
-        <v>1.038081034749891</v>
+        <v>1.031830804977077</v>
       </c>
       <c r="E7">
-        <v>1.055765644298527</v>
+        <v>1.029471245957818</v>
       </c>
       <c r="F7">
-        <v>1.061739993131783</v>
+        <v>1.037333842030491</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040178791172967</v>
+        <v>1.052721921335251</v>
       </c>
       <c r="J7">
-        <v>1.039327541820445</v>
+        <v>1.037078788483484</v>
       </c>
       <c r="K7">
-        <v>1.040559058547813</v>
+        <v>1.041556781002531</v>
       </c>
       <c r="L7">
-        <v>1.058199953532444</v>
+        <v>1.039223642602937</v>
       </c>
       <c r="M7">
-        <v>1.064159888040459</v>
+        <v>1.046998773123136</v>
       </c>
       <c r="N7">
-        <v>1.040803506142366</v>
+        <v>1.03855155931773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033715976866858</v>
+        <v>1.013004121883906</v>
       </c>
       <c r="D8">
-        <v>1.037284739808287</v>
+        <v>1.028124214303703</v>
       </c>
       <c r="E8">
-        <v>1.054383904567084</v>
+        <v>1.023552440701248</v>
       </c>
       <c r="F8">
-        <v>1.060336188013781</v>
+        <v>1.031255560980901</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039893604763288</v>
+        <v>1.050988431121903</v>
       </c>
       <c r="J8">
-        <v>1.038720312612016</v>
+        <v>1.03424171149659</v>
       </c>
       <c r="K8">
-        <v>1.040012672153113</v>
+        <v>1.03893623854154</v>
       </c>
       <c r="L8">
-        <v>1.057065019733272</v>
+        <v>1.034422556982334</v>
       </c>
       <c r="M8">
-        <v>1.0630013891071</v>
+        <v>1.042028166851694</v>
       </c>
       <c r="N8">
-        <v>1.04019541459881</v>
+        <v>1.035710453356097</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031821560594876</v>
+        <v>1.003556149515666</v>
       </c>
       <c r="D9">
-        <v>1.035882778440686</v>
+        <v>1.021314927819635</v>
       </c>
       <c r="E9">
-        <v>1.051957957654542</v>
+        <v>1.012707403281768</v>
       </c>
       <c r="F9">
-        <v>1.057869953747254</v>
+        <v>1.020103521483194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039381776135489</v>
+        <v>1.047713381688239</v>
       </c>
       <c r="J9">
-        <v>1.037647159735135</v>
+        <v>1.028983952934554</v>
       </c>
       <c r="K9">
-        <v>1.039045738657603</v>
+        <v>1.034071398245151</v>
       </c>
       <c r="L9">
-        <v>1.055069342436035</v>
+        <v>1.025597622002195</v>
       </c>
       <c r="M9">
-        <v>1.060962801431548</v>
+        <v>1.032878641137943</v>
       </c>
       <c r="N9">
-        <v>1.039120737721752</v>
+        <v>1.030445228173831</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030560033100994</v>
+        <v>0.9969554457695643</v>
       </c>
       <c r="D10">
-        <v>1.034949041995969</v>
+        <v>1.016572433831689</v>
       </c>
       <c r="E10">
-        <v>1.050346663354076</v>
+        <v>1.005166312137895</v>
       </c>
       <c r="F10">
-        <v>1.056230860761687</v>
+        <v>1.01233914103512</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039034347592983</v>
+        <v>1.04537176196043</v>
       </c>
       <c r="J10">
-        <v>1.036929674633136</v>
+        <v>1.025290380880117</v>
       </c>
       <c r="K10">
-        <v>1.038398399726624</v>
+        <v>1.030648778743982</v>
       </c>
       <c r="L10">
-        <v>1.053741774112775</v>
+        <v>1.019442909564962</v>
       </c>
       <c r="M10">
-        <v>1.059605700659386</v>
+        <v>1.026489125973489</v>
       </c>
       <c r="N10">
-        <v>1.038402233708611</v>
+        <v>1.026746410823417</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030014130393678</v>
+        <v>0.9940190901798222</v>
       </c>
       <c r="D11">
-        <v>1.034544957121131</v>
+        <v>1.014466852737985</v>
       </c>
       <c r="E11">
-        <v>1.049650389214767</v>
+        <v>1.001819481418227</v>
       </c>
       <c r="F11">
-        <v>1.055522327335347</v>
+        <v>1.008890928638614</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038882442519408</v>
+        <v>1.044317852715164</v>
       </c>
       <c r="J11">
-        <v>1.036618521870262</v>
+        <v>1.023642816213387</v>
       </c>
       <c r="K11">
-        <v>1.038117463157328</v>
+        <v>1.029121006808121</v>
       </c>
       <c r="L11">
-        <v>1.053167615370429</v>
+        <v>1.016707166363241</v>
       </c>
       <c r="M11">
-        <v>1.059018535787717</v>
+        <v>1.023647100504984</v>
       </c>
       <c r="N11">
-        <v>1.038090639073124</v>
+        <v>1.025096506425882</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029811411263334</v>
+        <v>0.9929160487047141</v>
       </c>
       <c r="D12">
-        <v>1.034394897940769</v>
+        <v>1.01367657102193</v>
       </c>
       <c r="E12">
-        <v>1.049391977140153</v>
+        <v>1.000563372434468</v>
       </c>
       <c r="F12">
-        <v>1.055259328291106</v>
+        <v>1.00759643090125</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038825798551825</v>
+        <v>1.043920155835302</v>
       </c>
       <c r="J12">
-        <v>1.036502875193636</v>
+        <v>1.023023269654467</v>
       </c>
       <c r="K12">
-        <v>1.038013016472435</v>
+        <v>1.028546357836871</v>
       </c>
       <c r="L12">
-        <v>1.052954451165561</v>
+        <v>1.015679787071075</v>
       </c>
       <c r="M12">
-        <v>1.058800507816873</v>
+        <v>1.022579528164653</v>
       </c>
       <c r="N12">
-        <v>1.037974828164952</v>
+        <v>1.024476080039785</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02985489276563</v>
+        <v>0.9931532236760338</v>
       </c>
       <c r="D13">
-        <v>1.034427084494142</v>
+        <v>1.013846465028791</v>
       </c>
       <c r="E13">
-        <v>1.049447397659403</v>
+        <v>1.000833409793809</v>
       </c>
       <c r="F13">
-        <v>1.055315734237804</v>
+        <v>1.007874736291305</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038837958805195</v>
+        <v>1.044005748736614</v>
       </c>
       <c r="J13">
-        <v>1.036527684981415</v>
+        <v>1.02315651236246</v>
       </c>
       <c r="K13">
-        <v>1.03803542489371</v>
+        <v>1.028669951192493</v>
       </c>
       <c r="L13">
-        <v>1.05300017089758</v>
+        <v>1.015900680077436</v>
       </c>
       <c r="M13">
-        <v>1.058847272321828</v>
+        <v>1.022809075449102</v>
       </c>
       <c r="N13">
-        <v>1.037999673185476</v>
+        <v>1.024609511967707</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029997372469381</v>
+        <v>0.9939281679284079</v>
       </c>
       <c r="D14">
-        <v>1.034532552440742</v>
+        <v>1.014401696709121</v>
       </c>
       <c r="E14">
-        <v>1.049629024398793</v>
+        <v>1.00171591941542</v>
       </c>
       <c r="F14">
-        <v>1.055500584038442</v>
+        <v>1.008784208477323</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038877764788757</v>
+        <v>1.044285107357023</v>
       </c>
       <c r="J14">
-        <v>1.036608963916243</v>
+        <v>1.023591760620413</v>
       </c>
       <c r="K14">
-        <v>1.038108831480395</v>
+        <v>1.029073654095683</v>
       </c>
       <c r="L14">
-        <v>1.053149993026897</v>
+        <v>1.016622474882477</v>
       </c>
       <c r="M14">
-        <v>1.059000512070483</v>
+        <v>1.023559101375769</v>
       </c>
       <c r="N14">
-        <v>1.038081067545715</v>
+        <v>1.02504537832811</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030085166037867</v>
+        <v>0.9944039818259306</v>
       </c>
       <c r="D15">
-        <v>1.03459753953006</v>
+        <v>1.014742698979698</v>
       </c>
       <c r="E15">
-        <v>1.049740959158747</v>
+        <v>1.002257925236087</v>
       </c>
       <c r="F15">
-        <v>1.055614500219051</v>
+        <v>1.009342729153987</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038902261480626</v>
+        <v>1.044456397236308</v>
       </c>
       <c r="J15">
-        <v>1.036659033213035</v>
+        <v>1.023858918637842</v>
       </c>
       <c r="K15">
-        <v>1.038154047230797</v>
+        <v>1.02932143009005</v>
       </c>
       <c r="L15">
-        <v>1.053242317176116</v>
+        <v>1.017065694076183</v>
       </c>
       <c r="M15">
-        <v>1.059094937596285</v>
+        <v>1.024019619248786</v>
       </c>
       <c r="N15">
-        <v>1.03813120794665</v>
+        <v>1.025312915740567</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030596270288542</v>
+        <v>0.9971486240831388</v>
       </c>
       <c r="D16">
-        <v>1.03497586473507</v>
+        <v>1.01671104786954</v>
       </c>
       <c r="E16">
-        <v>1.05039290290424</v>
+        <v>1.005386654361967</v>
       </c>
       <c r="F16">
-        <v>1.056277909243248</v>
+        <v>1.012566110545153</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039044398194022</v>
+        <v>1.045440845599504</v>
       </c>
       <c r="J16">
-        <v>1.036950314851024</v>
+        <v>1.025398681243441</v>
       </c>
       <c r="K16">
-        <v>1.038417031277675</v>
+        <v>1.030749183411789</v>
       </c>
       <c r="L16">
-        <v>1.053779893672538</v>
+        <v>1.019622933489929</v>
       </c>
       <c r="M16">
-        <v>1.059644678800493</v>
+        <v>1.026676104478597</v>
       </c>
       <c r="N16">
-        <v>1.038422903237976</v>
+        <v>1.026854864985678</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030916966310626</v>
+        <v>0.9988489169730572</v>
       </c>
       <c r="D17">
-        <v>1.03521324055866</v>
+        <v>1.017931562067319</v>
       </c>
       <c r="E17">
-        <v>1.050802232556905</v>
+        <v>1.00732692422959</v>
       </c>
       <c r="F17">
-        <v>1.056694371302583</v>
+        <v>1.014564478520168</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039133164689783</v>
+        <v>1.04604750964749</v>
       </c>
       <c r="J17">
-        <v>1.037132901114095</v>
+        <v>1.02635140158365</v>
       </c>
       <c r="K17">
-        <v>1.038581825042843</v>
+        <v>1.031632324968785</v>
       </c>
       <c r="L17">
-        <v>1.054117285646355</v>
+        <v>1.021207694063283</v>
       </c>
       <c r="M17">
-        <v>1.059989642976642</v>
+        <v>1.028321869483941</v>
       </c>
       <c r="N17">
-        <v>1.038605748794484</v>
+        <v>1.02780893829805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031104056269597</v>
+        <v>0.9998331656212589</v>
       </c>
       <c r="D18">
-        <v>1.035351719871148</v>
+        <v>1.018638470439657</v>
       </c>
       <c r="E18">
-        <v>1.051041125244146</v>
+        <v>1.008450838377329</v>
       </c>
       <c r="F18">
-        <v>1.056937402751194</v>
+        <v>1.015721829037544</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039184799173915</v>
+        <v>1.046397525557249</v>
       </c>
       <c r="J18">
-        <v>1.037239354505361</v>
+        <v>1.026902477240124</v>
       </c>
       <c r="K18">
-        <v>1.03867788516715</v>
+        <v>1.032143052513404</v>
       </c>
       <c r="L18">
-        <v>1.054314146925484</v>
+        <v>1.022125276497147</v>
       </c>
       <c r="M18">
-        <v>1.060190899915732</v>
+        <v>1.029274591442989</v>
       </c>
       <c r="N18">
-        <v>1.038712353361776</v>
+        <v>1.028360796545165</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031167854735449</v>
+        <v>1.0001675138009</v>
       </c>
       <c r="D19">
-        <v>1.035398941425653</v>
+        <v>1.018878670785712</v>
       </c>
       <c r="E19">
-        <v>1.051122604797617</v>
+        <v>1.008832759546842</v>
       </c>
       <c r="F19">
-        <v>1.057020289874803</v>
+        <v>1.016115075349945</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039202381176967</v>
+        <v>1.046516226965609</v>
       </c>
       <c r="J19">
-        <v>1.037275644514</v>
+        <v>1.027089603924425</v>
       </c>
       <c r="K19">
-        <v>1.038710628760752</v>
+        <v>1.032316460677931</v>
       </c>
       <c r="L19">
-        <v>1.054381282750477</v>
+        <v>1.022437015060646</v>
       </c>
       <c r="M19">
-        <v>1.060259530969037</v>
+        <v>1.029598237134963</v>
       </c>
       <c r="N19">
-        <v>1.038748694906389</v>
+        <v>1.028548188970822</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030882555198841</v>
+        <v>0.9986672719529645</v>
       </c>
       <c r="D20">
-        <v>1.035187770091751</v>
+        <v>1.017801131794751</v>
       </c>
       <c r="E20">
-        <v>1.050758301118158</v>
+        <v>1.007119564651187</v>
       </c>
       <c r="F20">
-        <v>1.056649676842351</v>
+        <v>1.014350932421406</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039123655517503</v>
+        <v>1.04598281918839</v>
       </c>
       <c r="J20">
-        <v>1.037113316095978</v>
+        <v>1.026249664875042</v>
       </c>
       <c r="K20">
-        <v>1.03856415056381</v>
+        <v>1.031538028780115</v>
       </c>
       <c r="L20">
-        <v>1.054081079823161</v>
+        <v>1.02103836976295</v>
       </c>
       <c r="M20">
-        <v>1.059952626907232</v>
+        <v>1.028146045997682</v>
       </c>
       <c r="N20">
-        <v>1.038586135963394</v>
+        <v>1.027707057111646</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029955414262105</v>
+        <v>0.993700312039015</v>
       </c>
       <c r="D21">
-        <v>1.034501493755171</v>
+        <v>1.014238423458853</v>
       </c>
       <c r="E21">
-        <v>1.049575533905831</v>
+        <v>1.001456405627164</v>
       </c>
       <c r="F21">
-        <v>1.05544614535364</v>
+        <v>1.008516775281447</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038866048977406</v>
+        <v>1.044203016993448</v>
       </c>
       <c r="J21">
-        <v>1.036585031239229</v>
+        <v>1.02346380245967</v>
       </c>
       <c r="K21">
-        <v>1.038087217666306</v>
+        <v>1.028954973925204</v>
       </c>
       <c r="L21">
-        <v>1.053105871269884</v>
+        <v>1.016410238390984</v>
       </c>
       <c r="M21">
-        <v>1.058955384811928</v>
+        <v>1.023338571448663</v>
       </c>
       <c r="N21">
-        <v>1.038057100881554</v>
+        <v>1.024917238452102</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029372793800085</v>
+        <v>0.9905056181899825</v>
       </c>
       <c r="D22">
-        <v>1.034070213229286</v>
+        <v>1.011950915743426</v>
       </c>
       <c r="E22">
-        <v>1.048833126344908</v>
+        <v>0.9978204606983817</v>
       </c>
       <c r="F22">
-        <v>1.054690489696622</v>
+        <v>1.004769073275759</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038702810947575</v>
+        <v>1.04304782986463</v>
       </c>
       <c r="J22">
-        <v>1.036252469094445</v>
+        <v>1.021668260372755</v>
       </c>
       <c r="K22">
-        <v>1.037786805728157</v>
+        <v>1.027289283017115</v>
       </c>
       <c r="L22">
-        <v>1.052493320519318</v>
+        <v>1.013435218691716</v>
       </c>
       <c r="M22">
-        <v>1.05832879149547</v>
+        <v>1.020246642235908</v>
       </c>
       <c r="N22">
-        <v>1.037724066460379</v>
+        <v>1.023119146489472</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029681622124803</v>
+        <v>0.9922061990574331</v>
       </c>
       <c r="D23">
-        <v>1.034298822917704</v>
+        <v>1.013168193135904</v>
       </c>
       <c r="E23">
-        <v>1.049226572359552</v>
+        <v>0.9997553286614366</v>
       </c>
       <c r="F23">
-        <v>1.055090977027004</v>
+        <v>1.006763597037251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038789466742953</v>
+        <v>1.04366372174082</v>
       </c>
       <c r="J23">
-        <v>1.036428804974377</v>
+        <v>1.022624391452388</v>
       </c>
       <c r="K23">
-        <v>1.037946111135281</v>
+        <v>1.0281763452139</v>
       </c>
       <c r="L23">
-        <v>1.052817988009008</v>
+        <v>1.015018710178452</v>
       </c>
       <c r="M23">
-        <v>1.058660921116223</v>
+        <v>1.021892510801705</v>
       </c>
       <c r="N23">
-        <v>1.037900652757486</v>
+        <v>1.024076635384908</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030898103995991</v>
+        <v>0.9987493726631419</v>
       </c>
       <c r="D24">
-        <v>1.035199279031549</v>
+        <v>1.017860083037077</v>
       </c>
       <c r="E24">
-        <v>1.050778151419102</v>
+        <v>1.007213285610615</v>
       </c>
       <c r="F24">
-        <v>1.056669871986144</v>
+        <v>1.014447450195779</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039127952740442</v>
+        <v>1.046012061875808</v>
       </c>
       <c r="J24">
-        <v>1.037122165865137</v>
+        <v>1.026295649599171</v>
       </c>
       <c r="K24">
-        <v>1.038572137089579</v>
+        <v>1.031580650726424</v>
       </c>
       <c r="L24">
-        <v>1.054097439471522</v>
+        <v>1.021114901040906</v>
       </c>
       <c r="M24">
-        <v>1.059969352736117</v>
+        <v>1.028225515346393</v>
       </c>
       <c r="N24">
-        <v>1.03859499830024</v>
+        <v>1.027753107139358</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032311068767617</v>
+        <v>1.006049824792483</v>
       </c>
       <c r="D25">
-        <v>1.036245066183063</v>
+        <v>1.023109820644378</v>
       </c>
       <c r="E25">
-        <v>1.052584068581382</v>
+        <v>1.015563479551248</v>
       </c>
       <c r="F25">
-        <v>1.058506646003942</v>
+        <v>1.023042158428743</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039515193431281</v>
+        <v>1.04858717803981</v>
       </c>
       <c r="J25">
-        <v>1.037924961137142</v>
+        <v>1.03037528954641</v>
       </c>
       <c r="K25">
-        <v>1.039296197406773</v>
+        <v>1.035359674312899</v>
       </c>
       <c r="L25">
-        <v>1.055584767996725</v>
+        <v>1.027924902887056</v>
       </c>
       <c r="M25">
-        <v>1.06148948392835</v>
+        <v>1.035293003174195</v>
       </c>
       <c r="N25">
-        <v>1.039398933633614</v>
+        <v>1.031838540643263</v>
       </c>
     </row>
   </sheetData>
